--- a/IHME_GBD_subset_combined.xlsx
+++ b/IHME_GBD_subset_combined.xlsx
@@ -17,58 +17,58 @@
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">HIV Deaths (both, sexes, 15)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIV Deaths (Female, 15, 49)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIV Deaths (Male, 15, 49)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIV Incidence (both, sexes, 15)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIV Incidence (Female, 15, 49)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIV Incidence (Male, 15, 49)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIV Prevalence (both, sexes, 15)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIV Prevalence (Female, 15, 49)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIV Prevalence (Male, 15, 49)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TB Deaths (both, sexes, 15)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TB Deaths (Female, 15, 49)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TB Deaths (Male, 15, 49)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TB Incidence (both, sexes, 15)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TB Incidence (Female, 15, 49)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TB Incidence (Male, 15, 49)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TB Prevalence (both, sexes, 15)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TB Prevalence (Female, 15, 49)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TB Prevalence (Male, 15, 49)</t>
+    <t xml:space="preserve">HIV Deaths - 15 (both, sexes)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIV Deaths - 49 (Female, 15)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIV Deaths - 49 (Male, 15)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIV Incidence - 15 (both, sexes)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIV Incidence - 49 (Female, 15)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIV Incidence - 49 (Male, 15)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIV Prevalence - 15 (both, sexes)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIV Prevalence - 49 (Female, 15)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIV Prevalence - 49 (Male, 15)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB Deaths - 15 (both, sexes)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB Deaths - 49 (Female, 15)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB Deaths - 49 (Male, 15)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB Incidence - 15 (both, sexes)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB Incidence - 49 (Female, 15)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB Incidence - 49 (Male, 15)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB Prevalence - 15 (both, sexes)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB Prevalence - 49 (Female, 15)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB Prevalence - 49 (Male, 15)</t>
   </si>
   <si>
     <t xml:space="preserve">Estimate</t>
@@ -25465,60 +25465,60 @@
     <col min="1" max="1" width="4.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="6.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="12.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="28.71" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="28.71" hidden="0" customWidth="1"/>
-    <col min="6" max="6" width="28.71" hidden="0" customWidth="1"/>
-    <col min="7" max="7" width="27.71" hidden="0" customWidth="1"/>
-    <col min="8" max="8" width="27.71" hidden="0" customWidth="1"/>
-    <col min="9" max="9" width="27.71" hidden="0" customWidth="1"/>
-    <col min="10" max="10" width="25.71" hidden="0" customWidth="1"/>
-    <col min="11" max="11" width="25.71" hidden="0" customWidth="1"/>
-    <col min="12" max="12" width="25.71" hidden="0" customWidth="1"/>
-    <col min="13" max="13" width="31.71" hidden="0" customWidth="1"/>
-    <col min="14" max="14" width="31.71" hidden="0" customWidth="1"/>
-    <col min="15" max="15" width="31.71" hidden="0" customWidth="1"/>
-    <col min="16" max="16" width="30.71" hidden="0" customWidth="1"/>
-    <col min="17" max="17" width="30.71" hidden="0" customWidth="1"/>
-    <col min="18" max="18" width="30.71" hidden="0" customWidth="1"/>
-    <col min="19" max="19" width="28.71" hidden="0" customWidth="1"/>
-    <col min="20" max="20" width="28.71" hidden="0" customWidth="1"/>
-    <col min="21" max="21" width="28.71" hidden="0" customWidth="1"/>
-    <col min="22" max="22" width="32.71" hidden="0" customWidth="1"/>
-    <col min="23" max="23" width="32.71" hidden="0" customWidth="1"/>
-    <col min="24" max="24" width="32.71" hidden="0" customWidth="1"/>
-    <col min="25" max="25" width="31.71" hidden="0" customWidth="1"/>
-    <col min="26" max="26" width="31.71" hidden="0" customWidth="1"/>
-    <col min="27" max="27" width="31.71" hidden="0" customWidth="1"/>
-    <col min="28" max="28" width="29.71" hidden="0" customWidth="1"/>
-    <col min="29" max="29" width="29.71" hidden="0" customWidth="1"/>
-    <col min="30" max="30" width="29.71" hidden="0" customWidth="1"/>
-    <col min="31" max="31" width="27.71" hidden="0" customWidth="1"/>
-    <col min="32" max="32" width="27.71" hidden="0" customWidth="1"/>
-    <col min="33" max="33" width="27.71" hidden="0" customWidth="1"/>
-    <col min="34" max="34" width="26.71" hidden="0" customWidth="1"/>
-    <col min="35" max="35" width="26.71" hidden="0" customWidth="1"/>
-    <col min="36" max="36" width="26.71" hidden="0" customWidth="1"/>
-    <col min="37" max="37" width="24.71" hidden="0" customWidth="1"/>
-    <col min="38" max="38" width="24.71" hidden="0" customWidth="1"/>
-    <col min="39" max="39" width="24.71" hidden="0" customWidth="1"/>
-    <col min="40" max="40" width="30.71" hidden="0" customWidth="1"/>
-    <col min="41" max="41" width="30.71" hidden="0" customWidth="1"/>
-    <col min="42" max="42" width="30.71" hidden="0" customWidth="1"/>
-    <col min="43" max="43" width="29.71" hidden="0" customWidth="1"/>
-    <col min="44" max="44" width="29.71" hidden="0" customWidth="1"/>
-    <col min="45" max="45" width="29.71" hidden="0" customWidth="1"/>
-    <col min="46" max="46" width="27.71" hidden="0" customWidth="1"/>
-    <col min="47" max="47" width="27.71" hidden="0" customWidth="1"/>
-    <col min="48" max="48" width="27.71" hidden="0" customWidth="1"/>
-    <col min="49" max="49" width="31.71" hidden="0" customWidth="1"/>
-    <col min="50" max="50" width="31.71" hidden="0" customWidth="1"/>
-    <col min="51" max="51" width="31.71" hidden="0" customWidth="1"/>
-    <col min="52" max="52" width="30.71" hidden="0" customWidth="1"/>
-    <col min="53" max="53" width="30.71" hidden="0" customWidth="1"/>
-    <col min="54" max="54" width="30.71" hidden="0" customWidth="1"/>
-    <col min="55" max="55" width="28.71" hidden="0" customWidth="1"/>
-    <col min="56" max="56" width="28.71" hidden="0" customWidth="1"/>
-    <col min="57" max="57" width="28.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="29.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="29.71" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="29.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="28.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="28.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="28.71" hidden="0" customWidth="1"/>
+    <col min="10" max="10" width="26.71" hidden="0" customWidth="1"/>
+    <col min="11" max="11" width="26.71" hidden="0" customWidth="1"/>
+    <col min="12" max="12" width="26.71" hidden="0" customWidth="1"/>
+    <col min="13" max="13" width="32.71" hidden="0" customWidth="1"/>
+    <col min="14" max="14" width="32.71" hidden="0" customWidth="1"/>
+    <col min="15" max="15" width="32.71" hidden="0" customWidth="1"/>
+    <col min="16" max="16" width="31.71" hidden="0" customWidth="1"/>
+    <col min="17" max="17" width="31.71" hidden="0" customWidth="1"/>
+    <col min="18" max="18" width="31.71" hidden="0" customWidth="1"/>
+    <col min="19" max="19" width="29.71" hidden="0" customWidth="1"/>
+    <col min="20" max="20" width="29.71" hidden="0" customWidth="1"/>
+    <col min="21" max="21" width="29.71" hidden="0" customWidth="1"/>
+    <col min="22" max="22" width="33.71" hidden="0" customWidth="1"/>
+    <col min="23" max="23" width="33.71" hidden="0" customWidth="1"/>
+    <col min="24" max="24" width="33.71" hidden="0" customWidth="1"/>
+    <col min="25" max="25" width="32.71" hidden="0" customWidth="1"/>
+    <col min="26" max="26" width="32.71" hidden="0" customWidth="1"/>
+    <col min="27" max="27" width="32.71" hidden="0" customWidth="1"/>
+    <col min="28" max="28" width="30.71" hidden="0" customWidth="1"/>
+    <col min="29" max="29" width="30.71" hidden="0" customWidth="1"/>
+    <col min="30" max="30" width="30.71" hidden="0" customWidth="1"/>
+    <col min="31" max="31" width="28.71" hidden="0" customWidth="1"/>
+    <col min="32" max="32" width="28.71" hidden="0" customWidth="1"/>
+    <col min="33" max="33" width="28.71" hidden="0" customWidth="1"/>
+    <col min="34" max="34" width="27.71" hidden="0" customWidth="1"/>
+    <col min="35" max="35" width="27.71" hidden="0" customWidth="1"/>
+    <col min="36" max="36" width="27.71" hidden="0" customWidth="1"/>
+    <col min="37" max="37" width="25.71" hidden="0" customWidth="1"/>
+    <col min="38" max="38" width="25.71" hidden="0" customWidth="1"/>
+    <col min="39" max="39" width="25.71" hidden="0" customWidth="1"/>
+    <col min="40" max="40" width="31.71" hidden="0" customWidth="1"/>
+    <col min="41" max="41" width="31.71" hidden="0" customWidth="1"/>
+    <col min="42" max="42" width="31.71" hidden="0" customWidth="1"/>
+    <col min="43" max="43" width="30.71" hidden="0" customWidth="1"/>
+    <col min="44" max="44" width="30.71" hidden="0" customWidth="1"/>
+    <col min="45" max="45" width="30.71" hidden="0" customWidth="1"/>
+    <col min="46" max="46" width="28.71" hidden="0" customWidth="1"/>
+    <col min="47" max="47" width="28.71" hidden="0" customWidth="1"/>
+    <col min="48" max="48" width="28.71" hidden="0" customWidth="1"/>
+    <col min="49" max="49" width="32.71" hidden="0" customWidth="1"/>
+    <col min="50" max="50" width="32.71" hidden="0" customWidth="1"/>
+    <col min="51" max="51" width="32.71" hidden="0" customWidth="1"/>
+    <col min="52" max="52" width="31.71" hidden="0" customWidth="1"/>
+    <col min="53" max="53" width="31.71" hidden="0" customWidth="1"/>
+    <col min="54" max="54" width="31.71" hidden="0" customWidth="1"/>
+    <col min="55" max="55" width="29.71" hidden="0" customWidth="1"/>
+    <col min="56" max="56" width="29.71" hidden="0" customWidth="1"/>
+    <col min="57" max="57" width="29.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
